--- a/weather_data.xlsx
+++ b/weather_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\C\fast-weather-scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DAE20E-EA08-4595-8699-98F94CBDCE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6A0373-F190-4011-842D-DE8454D19061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17388" yWindow="-9984" windowWidth="17496" windowHeight="30336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/weather_data.xlsx
+++ b/weather_data.xlsx
@@ -1,31 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\C\fast-weather-scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6A0373-F190-4011-842D-DE8454D19061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17388" yWindow="-9984" windowWidth="17496" windowHeight="30336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15816" yWindow="-8412" windowWidth="12876" windowHeight="22284"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913" concurrentCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>date</t>
   </si>
@@ -52,13 +46,262 @@
   </si>
   <si>
     <t>30.11.2023</t>
+  </si>
+  <si>
+    <t>01.12.2023</t>
+  </si>
+  <si>
+    <t>5°C</t>
+  </si>
+  <si>
+    <t>9°C</t>
+  </si>
+  <si>
+    <t>22 Km/h</t>
+  </si>
+  <si>
+    <t>32 Km/h</t>
+  </si>
+  <si>
+    <t>20,5mm</t>
+  </si>
+  <si>
+    <t>1cm</t>
+  </si>
+  <si>
+    <t>Ploaie</t>
+  </si>
+  <si>
+    <t>02.12.2023</t>
+  </si>
+  <si>
+    <t>4°C</t>
+  </si>
+  <si>
+    <t>19°C</t>
+  </si>
+  <si>
+    <t>37 Km/h</t>
+  </si>
+  <si>
+    <t>47 Km/h</t>
+  </si>
+  <si>
+    <t>9,6mm</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>03.12.2023</t>
+  </si>
+  <si>
+    <t>0°C</t>
+  </si>
+  <si>
+    <t>25 Km/h</t>
+  </si>
+  <si>
+    <t>36 Km/h</t>
+  </si>
+  <si>
+    <t>1,7mm</t>
+  </si>
+  <si>
+    <t>Ninsoare</t>
+  </si>
+  <si>
+    <t>04.12.2023</t>
+  </si>
+  <si>
+    <t>-3°C'</t>
+  </si>
+  <si>
+    <t>0mm</t>
+  </si>
+  <si>
+    <t>fenomene meteorologice neraportate</t>
+  </si>
+  <si>
+    <t>05.12.2023</t>
+  </si>
+  <si>
+    <t>13 Km/h</t>
+  </si>
+  <si>
+    <t>18 Km/h</t>
+  </si>
+  <si>
+    <t>06.12.2023</t>
+  </si>
+  <si>
+    <t>-2°C'</t>
+  </si>
+  <si>
+    <t>16 Km/h</t>
+  </si>
+  <si>
+    <t>07.12.2023</t>
+  </si>
+  <si>
+    <t>3°C</t>
+  </si>
+  <si>
+    <t>21 Km/h</t>
+  </si>
+  <si>
+    <t>4,3mm</t>
+  </si>
+  <si>
+    <t>08.12.2023</t>
+  </si>
+  <si>
+    <t>15 Km/h</t>
+  </si>
+  <si>
+    <t>09.12.2023</t>
+  </si>
+  <si>
+    <t>-1°C'</t>
+  </si>
+  <si>
+    <t>11 Km/h</t>
+  </si>
+  <si>
+    <t>10.12.2023</t>
+  </si>
+  <si>
+    <t>29 Km/h</t>
+  </si>
+  <si>
+    <t>11.12.2023</t>
+  </si>
+  <si>
+    <t>7°C</t>
+  </si>
+  <si>
+    <t>28 Km/h</t>
+  </si>
+  <si>
+    <t>12.12.2023</t>
+  </si>
+  <si>
+    <t>6°C</t>
+  </si>
+  <si>
+    <t>2,5mm</t>
+  </si>
+  <si>
+    <t>13.12.2023</t>
+  </si>
+  <si>
+    <t>10°C</t>
+  </si>
+  <si>
+    <t>43 Km/h</t>
+  </si>
+  <si>
+    <t>5,8mm</t>
+  </si>
+  <si>
+    <t>2cm</t>
+  </si>
+  <si>
+    <t>14.12.2023</t>
+  </si>
+  <si>
+    <t>8°C</t>
+  </si>
+  <si>
+    <t>33mm</t>
+  </si>
+  <si>
+    <t>Ceaţă</t>
+  </si>
+  <si>
+    <t>0,7mm</t>
+  </si>
+  <si>
+    <t>2,7mm</t>
+  </si>
+  <si>
+    <t>1,5mm</t>
+  </si>
+  <si>
+    <t>15.12.2023</t>
+  </si>
+  <si>
+    <t>26 Km/h</t>
+  </si>
+  <si>
+    <t>16.12.2023</t>
+  </si>
+  <si>
+    <t>17.12.2023</t>
+  </si>
+  <si>
+    <t>40 Km/h</t>
+  </si>
+  <si>
+    <t>18.12.2023</t>
+  </si>
+  <si>
+    <t>1°C</t>
+  </si>
+  <si>
+    <t>19.12.2023</t>
+  </si>
+  <si>
+    <t>20.12.2023</t>
+  </si>
+  <si>
+    <t>21.12.2023</t>
+  </si>
+  <si>
+    <t>39 Km/h</t>
+  </si>
+  <si>
+    <t>50 Km/h</t>
+  </si>
+  <si>
+    <t>22.12.2023</t>
+  </si>
+  <si>
+    <t>2°C</t>
+  </si>
+  <si>
+    <t>23.12.2023</t>
+  </si>
+  <si>
+    <t>41 Km/h</t>
+  </si>
+  <si>
+    <t>24.12.2023</t>
+  </si>
+  <si>
+    <t>25.12.2023</t>
+  </si>
+  <si>
+    <t>11°C</t>
+  </si>
+  <si>
+    <t>35 Km/h</t>
+  </si>
+  <si>
+    <t>26.12.2023</t>
+  </si>
+  <si>
+    <t>12°C</t>
+  </si>
+  <si>
+    <t>34 Km/h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="0">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,13 +361,10 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -176,9 +416,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -211,9 +451,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -392,11 +632,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,8 +682,684 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>